--- a/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,44</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-8,01; 7,44</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; 0,3</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-8,91; 4,87</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 1,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 4,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,07; -0,87</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-30,56%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-8,92%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-30,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,47%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-32,28; 46,57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-55,48; 4,76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-44,26; 40,23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-53,32; 11,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; 34,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,65; -5,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 10,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,62; 0,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,0; -10,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 3,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,92; -1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; -7,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 5,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; -2,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,12; -10,27</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,4%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 51,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,77; 1,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,45; -51,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,19; 19,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,9; -10,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,81; -42,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,53; 27,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,47; -11,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,67; -52,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 13,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,58; -4,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 3,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 13,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,86; 0,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 8,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 11,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; -2,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 5,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 73,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,95; -23,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,31; 24,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 148,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,0; 6,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 86,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,19; 85,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,62; -20,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,98; 36,99</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,19; 18,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 13,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 6,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 12,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 7,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 2,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,41; 14,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 8,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 2,72</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,97%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,81; 147,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 106,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,19; 52,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,52; 141,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,31; 86,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,31; 29,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,24; 124,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; 77,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,11; 23,31</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 17,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,6; 3,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; 7,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 15,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,81; 9,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,71; 4,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 13,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,35; 4,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 3,61</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,86%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,32%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,37; 96,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,92; 22,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,77; 46,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 145,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,55; 85,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,29; 40,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 88,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,24; 29,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,95; 24,53</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,81</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,89</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,27</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,86; 25,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 20,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 11,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 19,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,42; 17,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 15,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,89; 20,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,02; 16,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 11,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,17%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,84%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,12%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,54; 206,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,53; 176,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,15; 102,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,65; 284,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,61; 246,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,84; 212,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,94; 196,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,48; 155,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,89; 114,95</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 5,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; -0,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,72; -2,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 1,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; -0,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; -3,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 2,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; -1,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; -4,41</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,19%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,27%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,28%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,61%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,09; 33,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,34; -3,24</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,98; -15,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,83; 16,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,95; -5,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,11; -28,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,03; 16,84</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,78; -12,03</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,34; -28,0</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,81; 1,47</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,25; 0,96</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,14; 4,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 4,92</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 2,76</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 0,46</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 2,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 0,72</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 1,31</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,18%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,15%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,38%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,24%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,41%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,94%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; 8,8</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,74; 5,32</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,41; 28,6</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,52; 41,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,78; 23,2</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,52; 4,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,37; 15,04</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,44; 4,77</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,73; 8,57</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 7,08</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 0,25</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; -2,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 4,88</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 0,24</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; -2,04</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 5,27</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; -0,44</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; -2,52</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,24%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,85%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,63; 37,63</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,34; 1,36</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,58; -11,34</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,6; 35,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,41; 1,9</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,56; -15,19</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 31,82</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,17; -2,6</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,4; -15,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-5,9</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 17,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 0,3</t>
+          <t>-15,22; -0,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 11,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 1,3</t>
+          <t>-10,54; 0,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 12,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -0,87</t>
+          <t>-10,52; -1,23</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,56%</t>
+          <t>-34,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,32%</t>
+          <t>-32,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-30,47%</t>
+          <t>-33,06%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 107,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 4,76</t>
+          <t>-58,72; -0,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,0; 92,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 11,62</t>
+          <t>-54,83; 8,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,04; 88,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,65; -5,19</t>
+          <t>-49,82; -7,77</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,13</t>
+          <t>-16,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,33</t>
+          <t>-11,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,64</t>
+          <t>-13,6</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -10,88</t>
+          <t>-20,91; -10,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -7,26</t>
+          <t>-15,44; -7,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,12; -10,27</t>
+          <t>-17,14; -10,04</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-68,07%</t>
+          <t>-67,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-58,1%</t>
+          <t>-58,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-63,4%</t>
+          <t>-63,19%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,45; -51,57</t>
+          <t>-79,4; -48,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,81; -42,43</t>
+          <t>-69,71; -42,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -52,92</t>
+          <t>-71,96; -51,12</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 3,97</t>
+          <t>-9,89; 3,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 8,1</t>
+          <t>-1,14; 8,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,07</t>
+          <t>-3,29; 4,78</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 24,33</t>
+          <t>-38,7; 22,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 86,77</t>
+          <t>-8,18; 85,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 36,99</t>
+          <t>-17,38; 35,12</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,39</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 18,73</t>
+          <t>5,66; 19,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 6,62</t>
+          <t>-6,07; 6,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 12,52</t>
+          <t>0,64; 12,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 2,54</t>
+          <t>-8,96; 0,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,17</t>
+          <t>5,33; 14,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,72</t>
+          <t>-6,66; 1,68</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83,59%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>-30,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>70,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,97%</t>
+          <t>-17,61%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,81; 147,64</t>
+          <t>27,23; 146,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,19; 52,12</t>
+          <t>-34,11; 54,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,52; 141,58</t>
+          <t>4,38; 134,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 29,92</t>
+          <t>-60,88; 10,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,24; 124,78</t>
+          <t>33,65; 120,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 23,31</t>
+          <t>-41,38; 12,03</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 7,54</t>
+          <t>-7,83; 7,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 4,19</t>
+          <t>-8,49; 4,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,61</t>
+          <t>-6,52; 3,81</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>-8,36%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 46,31</t>
+          <t>-30,46; 46,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 40,59</t>
+          <t>-42,73; 43,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 24,53</t>
+          <t>-30,4; 25,96</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>6,96</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 11,52</t>
+          <t>-2,68; 11,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,35; 15,06</t>
+          <t>4,44; 15,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,53</t>
+          <t>2,39; 11,51</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>54,07%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 102,44</t>
+          <t>-15,06; 99,46</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>28,84; 212,03</t>
+          <t>29,15; 212,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>14,89; 114,95</t>
+          <t>14,27; 113,37</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-7,99</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -2,64</t>
+          <t>-11,71; -2,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -3,76</t>
+          <t>-14,06; -4,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -4,41</t>
+          <t>-12,41; -4,78</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-37,28%</t>
+          <t>-37,41%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-47,19%</t>
+          <t>-53,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-42,61%</t>
+          <t>-46,31%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-52,98; -15,12</t>
+          <t>-53,53; -14,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-68,11; -28,65</t>
+          <t>-78,24; -31,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-57,34; -28,0</t>
+          <t>-65,89; -29,54</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-3,16</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 4,87</t>
+          <t>-15,52; 2,89</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 0,46</t>
+          <t>-6,68; 0,49</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,31</t>
+          <t>-9,69; 0,48</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-21,14%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-21,38%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>-18,66%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 28,6</t>
+          <t>-66,92; 15,69</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 4,07</t>
+          <t>-39,77; 4,35</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 8,57</t>
+          <t>-55,68; 2,36</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-4,75</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,44; -2,15</t>
+          <t>-9,03; -3,12</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -2,04</t>
+          <t>-6,53; -2,53</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -2,52</t>
+          <t>-6,49; -3,04</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-21,24%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>-28,39%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>-27,64%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-30,58; -11,34</t>
+          <t>-43,67; -16,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-34,56; -15,19</t>
+          <t>-42,32; -18,18</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-29,4; -15,15</t>
+          <t>-37,51; -18,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 17,46</t>
+          <t>0,63; 17,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 7,44</t>
+          <t>-8,43; 7,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,22; -0,4</t>
+          <t>-13,88; -0,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 11,67</t>
+          <t>-2,82; 11,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 4,87</t>
+          <t>-7,99; 5,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 0,92</t>
+          <t>-11,16; 0,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 12,77</t>
+          <t>1,66; 12,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 4,81</t>
+          <t>-5,81; 5,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -1,23</t>
+          <t>-10,93; -1,38</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 107,57</t>
+          <t>2,48; 111,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 46,57</t>
+          <t>-33,57; 49,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,72; -0,64</t>
+          <t>-56,73; 0,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 92,9</t>
+          <t>-15,61; 101,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 40,23</t>
+          <t>-43,76; 44,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 8,57</t>
+          <t>-55,43; 3,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 88,65</t>
+          <t>8,2; 85,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 34,14</t>
+          <t>-27,81; 35,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,82; -7,77</t>
+          <t>-50,77; -8,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 10,77</t>
+          <t>-2,02; 11,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 0,04</t>
+          <t>-10,99; 0,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -10,52</t>
+          <t>-21,16; -10,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 3,42</t>
+          <t>-7,63; 2,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -1,93</t>
+          <t>-11,82; -1,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -7,2</t>
+          <t>-15,56; -7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 5,39</t>
+          <t>-2,91; 5,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -2,29</t>
+          <t>-9,69; -2,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,14; -10,04</t>
+          <t>-17,13; -10,16</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 51,4</t>
+          <t>-7,57; 54,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 1,53</t>
+          <t>-41,3; 4,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,4; -48,95</t>
+          <t>-78,37; -46,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 19,09</t>
+          <t>-34,72; 15,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; -10,94</t>
+          <t>-53,64; -9,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,71; -42,46</t>
+          <t>-70,12; -43,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 27,67</t>
+          <t>-12,38; 27,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,47; -11,51</t>
+          <t>-41,69; -11,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,96; -51,12</t>
+          <t>-72,08; -51,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 13,28</t>
+          <t>-1,11; 13,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -4,28</t>
+          <t>-16,82; -3,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 3,77</t>
+          <t>-10,36; 3,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 13,54</t>
+          <t>1,32; 13,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 0,56</t>
+          <t>-8,86; 0,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,03</t>
+          <t>-1,99; 8,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 11,73</t>
+          <t>2,59; 12,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -2,81</t>
+          <t>-10,79; -2,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,78</t>
+          <t>-3,85; 4,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 73,79</t>
+          <t>-4,89; 80,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,95; -23,69</t>
+          <t>-66,64; -21,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 22,17</t>
+          <t>-39,96; 24,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,15; 148,04</t>
+          <t>7,74; 132,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 6,04</t>
+          <t>-58,23; 11,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 85,28</t>
+          <t>-12,96; 93,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,19; 85,38</t>
+          <t>14,17; 87,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,62; -20,22</t>
+          <t>-56,5; -20,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 35,12</t>
+          <t>-20,59; 29,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 19,2</t>
+          <t>5,93; 19,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 13,88</t>
+          <t>0,4; 13,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,94</t>
+          <t>-6,78; 6,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 12,04</t>
+          <t>1,56; 12,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 7,36</t>
+          <t>-3,26; 7,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 0,88</t>
+          <t>-8,8; 1,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,33; 14,16</t>
+          <t>5,27; 13,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 8,76</t>
+          <t>0,19; 8,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 1,68</t>
+          <t>-6,83; 1,59</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,23; 146,71</t>
+          <t>31,58; 152,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,59; 106,77</t>
+          <t>2,69; 107,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 54,46</t>
+          <t>-35,05; 49,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,38; 134,08</t>
+          <t>9,96; 130,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 86,39</t>
+          <t>-22,93; 79,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 10,57</t>
+          <t>-60,29; 12,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,65; 120,58</t>
+          <t>33,18; 118,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 77,47</t>
+          <t>1,26; 74,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,38; 12,03</t>
+          <t>-44,35; 13,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 17,14</t>
+          <t>-1,45; 16,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 3,9</t>
+          <t>-13,32; 4,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 7,67</t>
+          <t>-8,93; 7,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 15,12</t>
+          <t>-1,13; 15,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 9,14</t>
+          <t>-8,25; 9,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 4,41</t>
+          <t>-8,86; 3,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 13,61</t>
+          <t>1,22; 13,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 4,27</t>
+          <t>-7,85; 4,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,81</t>
+          <t>-7,33; 3,17</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 96,67</t>
+          <t>-6,07; 101,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 22,19</t>
+          <t>-53,72; 29,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 46,99</t>
+          <t>-32,84; 50,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 145,09</t>
+          <t>-6,03; 145,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 85,26</t>
+          <t>-43,26; 82,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 43,49</t>
+          <t>-42,98; 38,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,59; 88,71</t>
+          <t>5,45; 89,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-39,24; 29,34</t>
+          <t>-37,32; 26,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 25,96</t>
+          <t>-32,48; 21,13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>8,86; 25,32</t>
+          <t>7,86; 24,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,8; 20,9</t>
+          <t>5,13; 20,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 11,1</t>
+          <t>-3,7; 10,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,35; 19,62</t>
+          <t>6,64; 19,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,42; 17,15</t>
+          <t>3,13; 16,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,44; 15,14</t>
+          <t>3,89; 15,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,89; 20,64</t>
+          <t>9,39; 19,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,02; 16,5</t>
+          <t>6,1; 16,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,39; 11,51</t>
+          <t>2,8; 11,3</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>42,54; 206,15</t>
+          <t>37,79; 214,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>24,53; 176,23</t>
+          <t>24,94; 172,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 99,46</t>
+          <t>-17,72; 88,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>46,65; 284,56</t>
+          <t>47,59; 279,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>23,61; 246,41</t>
+          <t>18,72; 215,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>29,15; 212,92</t>
+          <t>26,82; 220,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>59,94; 196,37</t>
+          <t>57,4; 187,91</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>38,48; 155,57</t>
+          <t>41,41; 158,57</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>14,27; 113,37</t>
+          <t>17,54; 112,88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 5,76</t>
+          <t>-4,6; 5,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -0,66</t>
+          <t>-10,83; -0,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,71; -2,6</t>
+          <t>-12,46; -2,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,97</t>
+          <t>-6,47; 2,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -0,75</t>
+          <t>-9,05; -0,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -4,29</t>
+          <t>-13,84; -4,14</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,73</t>
+          <t>-4,03; 2,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -1,95</t>
+          <t>-8,79; -2,31</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-12,41; -4,78</t>
+          <t>-12,56; -5,19</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 33,32</t>
+          <t>-20,04; 34,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-51,34; -3,24</t>
+          <t>-48,95; -0,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,53; -14,36</t>
+          <t>-55,52; -13,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 16,39</t>
+          <t>-37,16; 16,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-51,95; -5,42</t>
+          <t>-51,69; -5,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-78,24; -31,59</t>
+          <t>-78,58; -29,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 16,84</t>
+          <t>-21,1; 14,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-44,78; -12,03</t>
+          <t>-45,77; -13,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-65,89; -29,54</t>
+          <t>-67,09; -32,26</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 1,47</t>
+          <t>-7,29; 2,0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 0,96</t>
+          <t>-7,51; 1,04</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 2,89</t>
+          <t>-14,45; 3,54</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,92</t>
+          <t>-3,49; 4,97</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,76</t>
+          <t>-4,95; 2,96</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 0,49</t>
+          <t>-6,51; 0,41</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,28</t>
+          <t>-4,0; 1,86</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,72</t>
+          <t>-5,01; 0,94</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 0,48</t>
+          <t>-10,36; 0,5</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 8,8</t>
+          <t>-33,4; 12,44</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 5,32</t>
+          <t>-34,87; 5,8</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 15,69</t>
+          <t>-68,53; 18,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 41,16</t>
+          <t>-21,94; 37,45</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 23,2</t>
+          <t>-29,75; 26,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 4,35</t>
+          <t>-38,87; 3,56</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 15,04</t>
+          <t>-21,39; 11,82</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 4,77</t>
+          <t>-26,54; 7,34</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-55,68; 2,36</t>
+          <t>-55,01; 2,86</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,08</t>
+          <t>2,71; 7,2</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,25</t>
+          <t>-4,14; 0,14</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -3,12</t>
+          <t>-8,86; -3,18</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,88</t>
+          <t>0,96; 4,68</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,24</t>
+          <t>-3,79; 0,16</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -2,53</t>
+          <t>-6,6; -2,49</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,27</t>
+          <t>2,38; 5,38</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,44</t>
+          <t>-3,29; -0,37</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -3,04</t>
+          <t>-6,54; -3,18</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>11,63; 37,63</t>
+          <t>12,62; 38,29</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 1,36</t>
+          <t>-19,79; 0,77</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-43,67; -16,52</t>
+          <t>-43,77; -16,69</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>6,6; 35,07</t>
+          <t>6,15; 34,4</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 1,9</t>
+          <t>-23,66; 1,08</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-42,32; -18,18</t>
+          <t>-42,44; -18,24</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>12,47; 31,82</t>
+          <t>12,99; 32,41</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-19,17; -2,6</t>
+          <t>-18,37; -2,27</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-37,51; -18,56</t>
+          <t>-37,57; -19,33</t>
         </is>
       </c>
     </row>
